--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42975,6 +42975,41 @@
         <v>2896300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>5047500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43010,6 +43010,41 @@
         <v>5047500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>6681000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43045,6 +43045,41 @@
         <v>6681000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>8442400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43080,6 +43080,41 @@
         <v>8442400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3792300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>3792300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>2675600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>2675600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2225300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>2225300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1925700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>1925700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>4574100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         <v>4574100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1559600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>1559600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>6457800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>6457800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>6308400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>6308400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4165600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,76 @@
         <v>4165600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>4793200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10257900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,76 @@
         <v>10257900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3395600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2677900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,41 @@
         <v>2677900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>848000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43570,6 +43570,41 @@
         <v>848000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1887000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>1887000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>4217700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>4217700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5553800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,76 @@
         <v>5553800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>5497200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>4618100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>4618100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>8609300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>8609300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>14188600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2386"/>
+  <dimension ref="A1:I2387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83890,6 +83890,41 @@
         <v>14188600</v>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2387" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2387" t="n">
+        <v>8639600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2387"/>
+  <dimension ref="A1:I2388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83925,6 +83925,41 @@
         <v>8639600</v>
       </c>
     </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2388" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2388" t="n">
+        <v>4872700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2388"/>
+  <dimension ref="A1:I2389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83960,6 +83960,41 @@
         <v>4872700</v>
       </c>
     </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2389" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2389" t="n">
+        <v>6354900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2389"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83995,6 +83995,41 @@
         <v>6354900</v>
       </c>
     </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2390" t="n">
+        <v>6489500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2390"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84030,6 +84030,41 @@
         <v>6489500</v>
       </c>
     </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2391" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2391" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2391" t="n">
+        <v>5541300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2391"/>
+  <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84065,6 +84065,41 @@
         <v>5541300</v>
       </c>
     </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2392" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2392" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2392" t="n">
+        <v>3865800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2392"/>
+  <dimension ref="A1:I2393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84100,6 +84100,41 @@
         <v>3865800</v>
       </c>
     </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2393" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2393" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2393" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2393" t="n">
+        <v>3798900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2393"/>
+  <dimension ref="A1:I2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84135,6 +84135,41 @@
         <v>3798900</v>
       </c>
     </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2394" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2394" t="n">
+        <v>7139700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84170,6 +84170,41 @@
         <v>7139700</v>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2395" t="n">
+        <v>18081900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2395"/>
+  <dimension ref="A1:I2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84205,6 +84205,41 @@
         <v>18081900</v>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2396" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2396" t="n">
+        <v>24559200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2396"/>
+  <dimension ref="A1:I2397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84240,6 +84240,41 @@
         <v>24559200</v>
       </c>
     </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2397" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2397" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2397" t="n">
+        <v>4676100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2397"/>
+  <dimension ref="A1:I2398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84275,6 +84275,41 @@
         <v>4676100</v>
       </c>
     </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2398" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2398" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2398" t="n">
+        <v>3132300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2398"/>
+  <dimension ref="A1:I2399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84310,6 +84310,41 @@
         <v>3132300</v>
       </c>
     </row>
+    <row r="2399">
+      <c r="A2399" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2399" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2399" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2399" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2399" t="n">
+        <v>6815900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2399"/>
+  <dimension ref="A1:I2400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84345,6 +84345,41 @@
         <v>6815900</v>
       </c>
     </row>
+    <row r="2400">
+      <c r="A2400" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2400" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2400" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2400" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2400" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2400" t="n">
+        <v>2138400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8206.xlsx
+++ b/data/8206.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2400"/>
+  <dimension ref="A1:I2401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84380,6 +84380,41 @@
         <v>2138400</v>
       </c>
     </row>
+    <row r="2401">
+      <c r="A2401" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="D2401" t="inlineStr">
+        <is>
+          <t>ECOWLD</t>
+        </is>
+      </c>
+      <c r="E2401" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2401" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2401" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2401" t="n">
+        <v>2423500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
